--- a/matlab_attempt/Excel problems/Data questions.xlsx
+++ b/matlab_attempt/Excel problems/Data questions.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1AE1E189-07E5-45E7-B2E3-3669BC709923}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B167B8A-070D-4890-9D44-53E3DD4E5E64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
   </bookViews>
   <sheets>
     <sheet name="CG5.1.3" sheetId="1" r:id="rId1"/>
     <sheet name="CG5.1.4" sheetId="2" r:id="rId2"/>
+    <sheet name="CG5.1.5" sheetId="3" r:id="rId3"/>
+    <sheet name="CG5.1.6" sheetId="4" r:id="rId4"/>
+    <sheet name="CG5.1.7" sheetId="5" r:id="rId5"/>
+    <sheet name="Unused" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="377">
   <si>
     <t>questionText</t>
   </si>
@@ -484,8 +488,49 @@
     <t>D3</t>
   </si>
   <si>
+    <t>NUM_PLOT</t>
+  </si>
+  <si>
+    <t>num_plot</t>
+  </si>
+  <si>
+    <t>[answer,code_str,num_plot] = data7();</t>
+  </si>
+  <si>
+    <t>NUM_BEFORE</t>
+  </si>
+  <si>
+    <t>NUM_AFTER</t>
+  </si>
+  <si>
+    <t>num_plot - answer + 1</t>
+  </si>
+  <si>
+    <t>answer - 1</t>
+  </si>
+  <si>
+    <t>['$$' code_str '/$$']</t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>[answer,code_str,num_plot,hold_line,explain] = data8();</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;
-Matlab's default behavior is to create a fresh set of axes for each $plot/$ command. This causes any previously plotted lines to disappear, so it seems like only a single line can be plotted on each graph. The $hold on/$ command changes this default behavior so that any following $plot/$ commands add to the current axes instead of replacing them. You can revert to the default behavior by then typing $hold off/$
+Matlab's default behavior is to create a fresh set of axes for each $plot/$ command. This causes any previously plotted lines to disappear, so only a single line can be plotted on each graph. The $hold on/$ command changes this default behavior so that any additional $plot/$ commands will add to the current axes instead of replacing them. You can revert to the default behavior by then typing $hold off/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This code snippet has NUM_PLOT $plot/$ commands, but NUM_BEFORE of these commands are before the $hold on/$ command. Only one of these lines will be visible, along with the following lines. EXPLAIN 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, there will be a total of $ANS/$ lines visible on the plot.
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Matlab's default behavior is to create a fresh set of axes for each $plot/$ command. This causes any previously plotted lines to disappear, so only a single line can be plotted on each graph. The $hold on/$ command changes this default behavior so that any additional $plot/$ commands will add to the current axes instead of replacing them. You can revert to the default behavior by then typing $hold off/$.
 &lt;/p&gt;&lt;br/&gt;
 &lt;p&gt;
 This code snippet has NUM_PLOT $plot/$ commands, but NUM_BEFORE of these commands are before the $hold on/$ command. Only one of these lines will be visible, along with the following NUM_AFTER lines. 
@@ -495,28 +540,1083 @@
 &lt;/p&gt; </t>
   </si>
   <si>
-    <t>NUM_PLOT</t>
-  </si>
-  <si>
-    <t>num_plot</t>
-  </si>
-  <si>
-    <t>[answer,code_str,num_plot] = data7();</t>
-  </si>
-  <si>
-    <t>NUM_BEFORE</t>
-  </si>
-  <si>
-    <t>NUM_AFTER</t>
-  </si>
-  <si>
-    <t>num_plot - answer + 1</t>
-  </si>
-  <si>
-    <t>answer - 1</t>
-  </si>
-  <si>
-    <t>['$$' code_str '/$$']</t>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>hold_line</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have a large dataset in an array named $myData/$ and you wish to plot some of the rows in $myData/$ as separate lines on a plot. You type in several $plot/$ commands but find that you can only plot one line at a time.
+&lt;/p&gt;
+&lt;p&gt;
+After some googling, you find the $hold/$ function that will let you plot multiple lines on the same set of axes.
+&lt;/p&gt;
+&lt;p&gt;
+After the following code snippet runs, how many separate lines will show up on the plot?
+&lt;/p&gt;
+&lt;p&gt;
+$$figure()
+LINE1
+for i = 1:NUM_PLOT
+    plot(myData(i,:))
+end
+LINE2/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>IS_CORRECT</t>
+  </si>
+  <si>
+    <t>rand&gt;0.5</t>
+  </si>
+  <si>
+    <t>randi([3 30],1)</t>
+  </si>
+  <si>
+    <t>LINE1</t>
+  </si>
+  <si>
+    <t>LINE2</t>
+  </si>
+  <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Matlab's default behavior is to create a fresh set of axes for each $plot/$ command. This causes any previously plotted lines to disappear, so only a single line can be plotted on each graph. The $hold on/$ command changes this default behavior so that any additional $plot/$ commands will add to the current axes instead of replacing them. You can revert to the default behavior by then typing $hold off/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This code snippet has the line $LINE1/$ before a $for/$ loop that will plot the different lines. The line $LINE2/$ is after the loop. EXPLAIN
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, there will be a total of $ANS/$ lines visible on the plot.
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>if IS_CORRECT, explain = 'The $hold on/$ will allow each $plot/$ command to add a line to the plot with resetting it. The $hold off/$ will revert the behavior back to default, but the lines on the plot will remain visible. Any further $plot/$ commands, though, will remove them.'; end</t>
+  </si>
+  <si>
+    <t>if ~IS_CORRECT, explain = 'The $hold off/$ before the loop will have no effect because $hold/$ is already off by default. Each $plot/$ command in the loop will overwrite the previous one, so at the end of the loop, only a single line will be visible. The $hold on/$ should have been placed before the loop in order to plot multiple lines.'; end</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>if IS_CORRECT, line1 = 'hold on'; line2 = 'hold off'; answer = NUM_PLOT; end</t>
+  </si>
+  <si>
+    <t>if ~IS_CORRECT, line1 = 'hold off'; line2 = 'hold on'; answer = 1; end</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,array_str,img_id,alt_txt,explanation] = data10();</t>
+  </si>
+  <si>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+When you plot a 1D array with a simple plot command, e.g. $plot(myArray)/$, the x-position of a data point on the graph is the index in the array, and the y-position is the array value, i.e. if a dot is placed at (2,12), then $myArray(2) = 12/$. The x-axis ranges from 1 to 10 here because each array has 10 values.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+To match the array $ARRAY_DISP/$ with a line, you need to find which line has matching y-values in order from 1 to 10. In this case, EXPLAIN.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the correct answer is: ANS1.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data11</t>
+  </si>
+  <si>
+    <t>answers{1}</t>
+  </si>
+  <si>
+    <t>answers{6}</t>
+  </si>
+  <si>
+    <t>answers{2}</t>
+  </si>
+  <si>
+    <t>answers{3}</t>
+  </si>
+  <si>
+    <t>answers{5}</t>
+  </si>
+  <si>
+    <t>answers{4}</t>
+  </si>
+  <si>
+    <t>words{1}</t>
+  </si>
+  <si>
+    <t>words{2}</t>
+  </si>
+  <si>
+    <t>words{3}</t>
+  </si>
+  <si>
+    <t>COLOR_WORD</t>
+  </si>
+  <si>
+    <t>MARKER_WORD</t>
+  </si>
+  <si>
+    <t>LINESTYLE_WORD</t>
+  </si>
+  <si>
+    <t>symbols{1}</t>
+  </si>
+  <si>
+    <t>symbols{2}</t>
+  </si>
+  <si>
+    <t>symbols{3}</t>
+  </si>
+  <si>
+    <t>LINESTYLE_SYMBOL</t>
+  </si>
+  <si>
+    <t>MARKER_SYMBOL</t>
+  </si>
+  <si>
+    <t>COLOR_SYMBOL</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>isCaseSensitive</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>[answers,words,symbols] = data11();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+In a $plot/$ command you can set the Color, Marker, and LineStyle in a string after the array input. For example, $plot(x,'bo-')/$ would plot the data in the array $x/$ with blue circles connected by a solid line ($'b'/$ for blue, $'o'/$ for circles, and $'-'/$ for a solid line).
+&lt;/p&gt;
+&lt;p&gt;
+Take a minute and familiarize yourself with the other Color, Marker, and LineStyle options by typing $doc plot/$ into the Command Window. You can generally type the characters in any order, although there is some ambiguity. For example, $'-.'/$ would have a dash-dot line and no marker, while $'.-'/$ would have a dot marker connected by a solid line. 
+&lt;/p&gt;
+&lt;p&gt;
+Now, what string would you need to type to have &lt;strong&gt;COLOR_WORD MARKER_WORD&lt;/strong&gt; connected with a &lt;strong&gt;LINESTYLE_WORD&lt;/strong&gt;? Don't forget the quotation marks! Typing $'bo'/$ will work, $bo/$ will not.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>'ANS1</t>
+  </si>
+  <si>
+    <t>'ANS6</t>
+  </si>
+  <si>
+    <t>'ANS5</t>
+  </si>
+  <si>
+    <t>'ANS4</t>
+  </si>
+  <si>
+    <t>'ANS3</t>
+  </si>
+  <si>
+    <t>'ANS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+In a $plot/$ command you can set the Color, Marker, and LineStyle in a string after the array input. For example, $plot(x,'bo-')/$ would plot the data in the array $x/$ with blue circles connected by a solid line ($'b'/$ for blue, $'o'/$ for circles, and $'-'/$ for a solid line).
+&lt;/p&gt;
+&lt;p&gt;
+Take a minute and familiarize yourself with the other Color, Marker, and LineStyle options by typing $doc plot/$ into the Command Window. You can generally type the characters in any order, although there is some ambiguity. For example, $'-.'/$ would have a dash-dot line and no marker, while $'.-'/$ would have a dot marker connected by a solid line. 
+&lt;/p&gt;
+&lt;p&gt;
+Now, what string would you need to type in the $plot/$ command to produce a plot as shown below? Don't forget the quotation marks! Typing $'bo'/$ will work, $bo/$ will not.
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/colormatch_ID.png" target="_blank"&gt;&lt;img src="/static/colormatch_ID.png" alt="ALT_TEXT"/&gt;&lt;/a&gt;
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>data12</t>
+  </si>
+  <si>
+    <t>[img_id,alt_txt,answers,words,symbols] = data12();</t>
+  </si>
+  <si>
+    <t>data13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+In a $plot/$ command you can set the Color, Marker, and LineStyle in a string after the array input. For example, $plot(x,'bo-')/$ would plot the data in the array $x/$ with blue circles connected by a solid line ($'b'/$ for blue, $'o'/$ for circles, and $'-'/$ for a solid line).
+&lt;/p&gt;
+&lt;p&gt;
+Take a minute and familiarize yourself with the other Color, Marker, and LineStyle options by typing $doc plot/$ into the Command Window. You can generally type the characters in any order, although there is some ambiguity. For example, $'-.'/$ would have a dash-dot line and no marker, while $'.-'/$ would have a dot marker connected by a solid line. 
+&lt;/p&gt;
+&lt;p&gt;
+Now, which plot below is a possible graph for the command $plot(myData,LINESPEC)/$?
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>LINESPEC</t>
+  </si>
+  <si>
+    <t>linespec</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,linespec,words,explanation] = data13();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The command $plot(myData,LINESPEC)/$ would produce an image that has COLOR_WORD MARKER_WORD connected with a LINESTYLE_WORD. EXPLAINTherefore, the correct answer is:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+ANS1
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+There are other ways to change the appearance of plots that won't be covered in this course. The general form is to include the name of the property followed by the property value, e.g. $plot(x,'Color',[0.5 0.5 0.5],'LineWidth',2)/$. This would plot $x/$ with a thick gray line. Check out the $plot/$ documentation for a full list of customizable properties.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This image has COLOR_WORD MARKER_WORD connected with a LINESTYLE_WORD, so you need $'COLOR_SYMBOL'/$ for the color, $'MARKER_SYMBOL'/$ for the marker, and $'LINESTYLE_SYMBOL'/$ for the LineStyle. They can be in any order, so correct answers include $ANS2/$, $ANS4/$, or $ANS6/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+There are other ways to change the appearance of plots that won't be covered in this course. The general form is to include the name of the property followed by the property value, e.g. $plot(x,'Color',[0.5 0.5 0.5],'LineWidth',2)/$. This would plot $x/$ with a thick gray line. Check out the $plot/$ documentation for a full list of customizable properties.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To have COLOR_WORD MARKER_WORD connected with a LINESTYLE_WORD, you need $'COLOR_SYMBOL'/$ for the color, $'MARKER_SYMBOL'/$ for the marker, and $'LINESTYLE_SYMBOL'/$ for the LineStyle. They can be in any order, so correct answers include $ANS2/$, $ANS4/$, or $ANS6/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+There are other ways to change the appearance of plots that won't be covered in this course. The general form is to include the name of the property followed by the property value, e.g. $plot(x,'Color',[0.5 0.5 0.5],'LineWidth',2)/$. This would plot $x/$ with a thick gray line. Check out the $plot/$ documentation for a full list of customizable properties.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data14</t>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>names(1)</t>
+  </si>
+  <si>
+    <t>names(2)</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>[display,correct,incorrect,explanation,names,reference] = data14();</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>HELPER_PHRASE</t>
+  </si>
+  <si>
+    <t>helper_phrase</t>
+  </si>
+  <si>
+    <t>if contains(correct,'None of these'), helper_phrase = 'This matches the code snippet above'; else, helper_phrase = 'The code snippet in the problem text has a mistake'; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $xlabel/$ and $ylabel/$ functions will add labels to the axes. A correct usage of these functions with the variables $XX/$ and $YY/$ would be something like: 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$REFERENCE/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+HELPER_PHRASE. EXPLAIN.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the correct answer is: "ANS1".
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You wish to create a scatter plot to see a possible correlation between variables $XX/$ (independent variable) and $YY/$ (dependent variable). You also want to make sure the axes are properly labeled. Below is a code snippet that attempts to do this.
+&lt;/p&gt;
+&lt;p&gt;
+$$SNIPPET/$$
+&lt;/p&gt;
+&lt;p&gt;
+What is the mistake in this code?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You wish to create a scatter plot to see a possible correlation between variables $XX/$ (independent variable) and $YY/$ (dependent variable). You also want to make sure the axes are properly labeled. 
+&lt;/p&gt;
+&lt;p&gt;
+Which code snippet below does this correctly?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data15</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,explanation,names,reference] = data15();</t>
+  </si>
+  <si>
+    <t>if contains(correct,'None of these'), helper_phrase = 'This is not one of the above choices, so the correct answer is: "None of these are correct"'; else, helper_phrase = 'The other choices all have a mistake'; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $xlabel/$ and $ylabel/$ functions will add labels to the axes. A correct usage of these functions with the variables $XX/$ and $YY/$ would be something like: 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+REFERENCE
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+HELPER_PHRASE.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The incorrect choices are:
+&lt;ul&gt;EXPLAIN&lt;/ul&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Below is a plot with multiple lines, numbered 1 to 4
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/linematch_ID.png" target="_blank"&gt;&lt;img src="/static/linematch_ID.png" alt="ALT_TEXT"/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+Which line was plotted with $plot(ARRAY_DISP)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data16</t>
+  </si>
+  <si>
+    <t>load('Data\hist_array_ID.mat','myArray')</t>
+  </si>
+  <si>
+    <t>COUNTS</t>
+  </si>
+  <si>
+    <t>hist(myArray)</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>CDISP</t>
+  </si>
+  <si>
+    <t>ORD1</t>
+  </si>
+  <si>
+    <t>ordinal_string(INDEX)</t>
+  </si>
+  <si>
+    <t>['A histogram plot with 10 bars of various heights that span a range from -2 to 2. The heights of the bars are COUNTS']</t>
+  </si>
+  <si>
+    <t>mimic_array_output(COUNTS,'counts')</t>
+  </si>
+  <si>
+    <t>extract(COUNTS,INDEX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Download &lt;a href="/static/hist_array_ID.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace.
+&lt;/p&gt;
+&lt;p&gt;
+Create a histogram of data in myArray with the $hist/$ function by typing $hist(myArray)/$ into the Command Window. You should see a histogram with 10 bins. How many data points are in the &lt;strong&gt;ORD1&lt;/strong&gt; bin?
+&lt;/p&gt;
+&lt;p&gt;
+There are a couple of ways you can get this information. For example, you can use the &lt;a href="https://www.mathworks.com/help/matlab/creating_plots/data-cursors-with-histograms.html" target="_blank"&gt;Data Cursor&lt;/a&gt; functionality on the plot, or you could get the counts directly from the &lt;a href="https://www.mathworks.com/help/matlab/ref/hist.html" target="_blank"&gt;$hist/$ function&lt;/a&gt;. 
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>data17</t>
+  </si>
+  <si>
+    <t>[-2:0.5:2]</t>
+  </si>
+  <si>
+    <t>load('Data\randhist_ID.mat','counts')</t>
+  </si>
+  <si>
+    <t>randi([2 8],1)</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>XRANGES</t>
+  </si>
+  <si>
+    <t>extract(XRANGES,INDEX)</t>
+  </si>
+  <si>
+    <t>extract(XRANGES,INDEX+1)</t>
+  </si>
+  <si>
+    <t>XLOW</t>
+  </si>
+  <si>
+    <t>XHIGH</t>
+  </si>
+  <si>
+    <t>YRANGES</t>
+  </si>
+  <si>
+    <t>[0:40:200]</t>
+  </si>
+  <si>
+    <t>EXACT_ANS</t>
+  </si>
+  <si>
+    <t>counts(INDEX)</t>
+  </si>
+  <si>
+    <t>Between 0 and 40</t>
+  </si>
+  <si>
+    <t>Between 40 and 80</t>
+  </si>
+  <si>
+    <t>Between 80 and 120</t>
+  </si>
+  <si>
+    <t>Between 120 and 160</t>
+  </si>
+  <si>
+    <t>Between 160 and 200</t>
+  </si>
+  <si>
+    <t>LOGICAL</t>
+  </si>
+  <si>
+    <t>is_correct{1}</t>
+  </si>
+  <si>
+    <t>is_correct{2}</t>
+  </si>
+  <si>
+    <t>is_correct{3}</t>
+  </si>
+  <si>
+    <t>is_correct{4}</t>
+  </si>
+  <si>
+    <t>is_correct{5}</t>
+  </si>
+  <si>
+    <t>['A histogram plot with 8 bars of various heights. The bars are evenly spaced on the x-axis from -2 to 2, so the first bar spans from -2 to -1.5, the second from -1.5 to -1, etc. The heights of the bars are COUNTS']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The default behavior of the $hist/$ function is to count the number of data points in 10 evenly spaced bins that span the range of the input array. The command $hist(myArray)/$ should have produced a plot that looks similar to the following.
+&lt;/p&gt;&lt;br/&gt; 
+&lt;p&gt;
+&lt;a href="/static/hist_array_ID.png" target="_blank"&gt;&lt;img src="/static/hist_array_ID.png" alt="ALT_TEXT"/&gt;&lt;/a&gt;
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+If you use the Data Cursor to find the count in the ORD1 bin, then you must click on the Data Cursor icon in the toolbar at the top of the plot and then click somewhere on the ORD1 bin. A small "Datatip" window should appear and display that the ORD1 bin has a count of $ANS/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+You can also get the counts directly from the $hist/$ function. If you type
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$counts = hist(myArray)/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+then instead of a plot, an array named $counts/$ should be created with the values
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$CDISP/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The ORD1 value in this array is $ANS/$, meaning there are $ANS/$ datapoints in the ORD1 bin.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>extract(YRANGES,find(LOGICAL)+1)</t>
+  </si>
+  <si>
+    <t>extract(YRANGES,find(LOGICAL))</t>
+  </si>
+  <si>
+    <t>YHIGH</t>
+  </si>
+  <si>
+    <t>YLOW</t>
+  </si>
+  <si>
+    <t>is_correct = convert_logical(LOGICAL);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+You have a dataset in a variable named $myArray/$ and visualize it with $hist/$ function. Below is the output using 8 bins from $-2/$ to $2/$.
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/randhist_ID.png" target="_blank"&gt;&lt;img src="/static/randhist_ID.png" alt="ALT_TEXT"/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+How many points in $myArray/$ are in the range $XLOW/$ to $XHIGH/$?. 
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>counts(INDEX)&lt;[40 80 120 160 200] &amp; counts(INDEX)&gt;[0 40 80 120 160]</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $hist/$ function creates a histogram of an array and can give you a sense of the distribution of values. You can infer the number of data points in a particular range of the data by the height of the bar at that range.
+&lt;/p&gt;&lt;br/&gt; 
+&lt;p&gt;
+The range from XLOW to XHIGH is the ORD1 bar in this histogram (numbered from left to right). The exact height of this bar is $EXACT_ANS/$, meaning there are $EXACT_ANS/$ points in this range. You do not need to know this exact number, but you can tell from the graph that the number is between YLOW and YHIGH. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the correct answer is "Between YLOW and YHIGH".
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data18</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values] = data18();</t>
+  </si>
+  <si>
+    <t>DATA_ALT_TEXT</t>
+  </si>
+  <si>
+    <t>SHAPE</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+You have a dataset in a variable named $myArray/$ and visualize it with $plot(myArray,'.')/$ function
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/betarnd_data_ID.png" target="_blank"&gt;&lt;img src="/static/betarnd_data_ID.png" alt="DATA_ALT_TEXT"/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+Which plot below is the matching histogram to this data? 
+&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+This dataset appears to be somewhat random but drawn from a SHAPE distribution with values that between $0/$ and $FACTOR/$. In general, it's &lt;em&gt;not&lt;/em&gt; a good idea to make assumptions like this about your data, but it is enough in this case to answer the question.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>data19</t>
+  </si>
+  <si>
+    <t>randsample({'X','Y','Z','myData','myArray','myVar','my_data','my_array','var1','x','y','z','myVar1','my_data1','myArray1'},1)</t>
+  </si>
+  <si>
+    <t>NUM_BINS</t>
+  </si>
+  <si>
+    <t>['hist(XX,NUM_BINS)']</t>
+  </si>
+  <si>
+    <t>['hist(XX, NUM_BINS)']</t>
+  </si>
+  <si>
+    <t>randsample([8:2:100],1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Histograms can sometimes be misleading based on the way the data is grouped into bins. For example, consider a dataset with a bimodal distribution that is accurately modeled by the following probability density function.
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/vm_pdf.png" target="_blank"&gt;&lt;img src="/static/vm_pdf.png" alt="A plot of a bimodal probability density function."/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+Using a numerical simulation, 5000 random samples are drawn from this distribution and saved in an array called $myData/$. A histogram is created from this data with the command $hist(myData)/$.
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/vm_hist10.png" target="_blank"&gt;&lt;img src="/static/vm_hist10.png" alt="A histogram of 5000 random samples drawn from a bimodal distribution. The histogram has only 10 bins."/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+The default histogram created with $hist/$ has only 10 bins, so it is difficult to see the bimodal nature of the data. It almost appears unimodal.
+&lt;/p&gt;
+&lt;p&gt;
+You can increase the number of bins in the histogram by passing a second argument to the hist function. The following histogram was created with the command $hist(myData,30)/$.
+&lt;/p&gt;
+&lt;p&gt;
+&lt;a href="/static/vm_hist30.png" target="_blank"&gt;&lt;img src="/static/vm_hist30.png" alt="A histogram of 5000 random samples drawn from a bimodal distribution. The histogram has only 10 bins."/&gt;&lt;/a&gt;
+&lt;/p&gt;
+&lt;p&gt;
+This histogram has 30 bins, which makes the bimodal nature of this data's distribution much more apparent. In general, it is a good idea to try out a couple of different values when initially exploring your data.
+&lt;/p&gt;
+&lt;p&gt;
+Say you wish to create a histogram of the values in a variable named $XX/$ with &lt;strong&gt;NUM_BINS&lt;/strong&gt; bins. Type a line of code that would create this histogram with the $hist/$ function. Try to avoid extra spaces in your response.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>['hist(XX,NUM_BINS);']</t>
+  </si>
+  <si>
+    <t>['hist(XX, NUM_BINS);']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+Given an array named $XX/$, the correct way to make a histogram with NUM_BINS bins using the $hist/$ function is by typing:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$ANS1/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+There is a newer function in Matlab that can create histograms called $histogram/$. It will also allow you to set the number of bins by using the bin number as a second argument, e.g. $histogram(XX,NUM_BINS)/$. However, it has a nicer default behavior than $hist/$ if you don't specify the number of bins. If you type $histogram(XX)/$, Matlab will automatically pick a bin number that tries to appropriately display the distribution.
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>data4.5</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Write a Matlab statement that would return the WORD of a 1-dimensional array named $XX/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>FUNC</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>randi(6,1)</t>
+  </si>
+  <si>
+    <t>extract({'min','max','mean','median','std','var'},IND)</t>
+  </si>
+  <si>
+    <t>extract({'minimum','maximum','mean','median','standard deviation','variance'},IND)</t>
+  </si>
+  <si>
+    <t>isRegexp</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The Matlab function that calculates the WORD of an array is $FUNC/$, so the correct answer is $FUNC(XX)/$. Since $XX/$ is 1-dimensional, $FUNC(XX)/$ will return a single value. Summary statistic functions like $FUNC/$ will work with 2-dimensional arrays, but they won't return a single value.
+&lt;/p&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>randsample('ABCDEFGHKLMNPQRSTUVWXYZ',1);</t>
+  </si>
+  <si>
+    <t>['\s*FUNC\s*\(\s*XX\s*\)\s*;*\s*']</t>
+  </si>
+  <si>
+    <t>data20</t>
+  </si>
+  <si>
+    <t>FUNC_IND</t>
+  </si>
+  <si>
+    <t>DIM_IND</t>
+  </si>
+  <si>
+    <t>randi(2,1)</t>
+  </si>
+  <si>
+    <t>DIM_WORD</t>
+  </si>
+  <si>
+    <t>extract({'min','max','mean','median','std','var'},FUNC_IND)</t>
+  </si>
+  <si>
+    <t>extract({'minimum','maximum','mean','median','standard deviation','variance'},FUNC_IND)</t>
+  </si>
+  <si>
+    <t>FUNC_WORD</t>
+  </si>
+  <si>
+    <t>extract({'column','row'},DIM_IND)</t>
+  </si>
+  <si>
+    <t>ACTION_WORD</t>
+  </si>
+  <si>
+    <t>REGEX1</t>
+  </si>
+  <si>
+    <t>REGEX2</t>
+  </si>
+  <si>
+    <t>IS_VAR</t>
+  </si>
+  <si>
+    <t>strcmp('FUNC_WORD','std') | strcmp('FUNC_WORD','var')</t>
+  </si>
+  <si>
+    <t>if IS_VAR, reference = 'FUNC_WORD(XX,0,DIM_IND)'; else, reference = 'FUNC_WORD(XX,DIM_IND)'; end</t>
+  </si>
+  <si>
+    <t>ordinal_string(DIM_IND)</t>
+  </si>
+  <si>
+    <t>OTHER_IND</t>
+  </si>
+  <si>
+    <t>find(1:2~=DIM_IND)</t>
+  </si>
+  <si>
+    <t>ORD2</t>
+  </si>
+  <si>
+    <t>ordinal_string(OTHER_IND)</t>
+  </si>
+  <si>
+    <t>REGEX3</t>
+  </si>
+  <si>
+    <t>REGEX4</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*XX\s*,\s*((\[\])|[01])\s*,\s*DIM_IND\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*XX\s*(,\s*((\[\])|[01])\s*,\s*DIM_IND\s*)?\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*XX\s*,\s*DIM_IND\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*XX\s*(,\s*DIM_IND\s*)?\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>IS_COL</t>
+  </si>
+  <si>
+    <t>DIM_IND==1</t>
+  </si>
+  <si>
+    <t>if IS_VAR, if IS_COL, answer = 'REGEX2'; else, answer = 'REGEX1'; end, end</t>
+  </si>
+  <si>
+    <t>if ~IS_VAR, if IS_COL, answer = 'REGEX4'; else, answer = 'REGEX3'; end, end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Write a single Matlab statement that would return the &lt;strong&gt;ACTION_WORD&lt;/strong&gt; of each &lt;strong&gt;DIM_WORD&lt;/strong&gt; for a 2D array named $XX/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>EXPLAIN1</t>
+  </si>
+  <si>
+    <t>EXPLAIN2</t>
+  </si>
+  <si>
+    <t>if IS_VAR, explanation1 = '&lt;br/&gt;&lt;p&gt;The $FUNC_WORD/$ function requires 3 inputs to specify the dimension, since the 2nd input is a weighting option. Therefore, you can use either $FUNC_WORD(X,[],DIM_IND)/$ or $FUNC_WORD(X,0,DIM_IND)/$, since both $0/$ and $[]/$ will produce the same result. You could also type $FUNC_WORD(X,1,DIM_IND)/$, but this will produce slightly different numbers.&lt;/p&gt;'; else, explanation1 = ''; end</t>
+  </si>
+  <si>
+    <t>explanation2</t>
+  </si>
+  <si>
+    <t>explanation1</t>
+  </si>
+  <si>
+    <t>if IS_COL, explanation2 = '&lt;br/&gt;&lt;p&gt;The default behavior for $FUNC_WORD(XX)/$ without the additional input is to take ACTION_WORD of each DIM_WORD. Therefore, $FUNC_WORD(XX)/$ is also an acceptable answer, but the more explicit $REFERENCE/$ is often better for code readability.&lt;/p&gt;'; else, explanation2 = ''; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $FUNC_WORD/$ function will calculate the ACTION_WORD of an array. Since $XX/$ is 2D, then $FUNC_WORD(XX)/$ will not return a single value. It will return an array. If you want the ACTION_WORD of each &lt;strong&gt;DIM_WORD&lt;/strong&gt;, then you want Matlab to calculate the ACTION_WORD &lt;em&gt;across&lt;/em&gt; the ORD1 dimension. This will ensure that you get a value for each entry in the ORD2 dimension, i.e. for each DIM_WORD.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Since you want Matlab to calculate &lt;em&gt;across&lt;/em&gt; the ORD1 dimension, the number $DIM_IND/$ should be added as an input, e.g. $REFERENCE/$. This will return an array of values containing the ACTION_WORD of each DIM_WORD. 
+&lt;/p&gt;
+EXPLAIN1
+EXPLAIN2</t>
+  </si>
+  <si>
+    <t>data21</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Write a single Matlab statement that would return the &lt;strong&gt;ACTION_WORD&lt;/strong&gt; of all the values in a 2D array named $XX/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*FUNC_WORD\s*\(\s*XX\s*\)\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>if IS_VAR, answer = 'REGEX2'; else, answer = '(REGEX1)|(REGEX2)'; end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The $FUNC_WORD/$ function will calculate the ACTION_WORD of an array. Since $XX/$ is 2D, then $FUNC_WORD(XX)/$ will not return a single value. It will return an array with the ACTION_WORD of each column.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+One way to find the ACTION_WORD of the entire array is to linearize the array, e.g $XX(:)/$. Using the colon operator to index $XX/$ will collapse the entire array into a single column, so $FUNC_WORD(XX(:))/$ will return a single value.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>if IS_VAR, explanation='With other functions like $mean/$, you can also nest the function calls, e.g. $mean(mean(XX))/$. You cannot do this with $FUNC_WORD/$, so $FUNC_WORD(FUNC_WORD(XX))/$ is not a correct answer. This will return the ACTION_WORD of the array with the ACTION_WORDs of each column.'; end</t>
+  </si>
+  <si>
+    <t>if ~IS_VAR, explanation='Another way is to nest the function calls, e.g. $FUNC_WORD(FUNC_WORD(XX))/$. The inner function call will return a value for each column, and then the outer funciton call will return the overall ACTION_WORD. Note that this will not work for functions like $std/$ and $var/$.'; end</t>
+  </si>
+  <si>
+    <t>['\s*FUNC_WORD\s*\(\s*XX\s*\(\s*(:|(1\s*:\s*end))\s*\)\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>data22</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have an array $XX/$ with the following values:
+&lt;/p&gt;
+&lt;p&gt;
+ARRAY_DISP
+&lt;/p&gt;
+&lt;p&gt;
+Which would be returned by $FUNC_STR(XX)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = data22();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Since $XX/$ is a 2D array, $FUNC_STR(XX)/$ will not return a single value. By default, $FUNC_STR(XX)/$ will return the WORD of each column as a single row array. The correct output to $FUNC_STR(XX)/$ is
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+REFERENCE
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>randi(20,1)</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Download &lt;a href="/static/rand_1D_array_FILE.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace.
+&lt;/p&gt;
+&lt;p&gt;
+What is $FUNC(myArray)/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>load('Data\rand_1D_array_FILE.mat','myArray')</t>
+  </si>
+  <si>
+    <t>FUNC(myArray)</t>
+  </si>
+  <si>
+    <t>DISPLAY</t>
+  </si>
+  <si>
+    <t>mimic_array_output(ANS)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $FUNC/$ function calculates the WORD of an array. Since $myArray/$ is a 1D array, $FUNC(myArray)/$ will return the single value
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$DISPLAY/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The same value will be returned if $myArray/$ was a single row instead of a single column. You can check yourself with $FUNC(myArray')/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data4.6</t>
+  </si>
+  <si>
+    <t>data23</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Download &lt;a href="/static/rand_2D_array_FILE.mat" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab. If you are using Matlab Online, you will need to upload the file before loading it. There should now be a variable named $myArray/$ in the workspace.
+&lt;/p&gt;
+&lt;p&gt;
+What is the &lt;strong&gt;WORD&lt;/strong&gt; of all the values in this array?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>FUNC(myArray(:))</t>
+  </si>
+  <si>
+    <t>load('Data\rand_2D_array_FILE.mat','myArray')</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>extra = ''; if ~IS_VAR, extra = 'You can also nest the function calls, e.g. $FUNC(FUNC(myArray)/$.'; end</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $FUNC/$ function calculates the WORD of an array. Since $myArray/$ is a 2D array, $FUNC(myArray)/$ will not return a single value, but an array of values with the WORD of each column.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+To get the WORD of the entire array, you can use $FUNC(myArray(:))/$, which will return a single value since $myArray(:)/$ collapses the array into a single column. EXTRA
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The correct value for the WORD of $myArray/$ is
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$DISPLAY/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data24</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Which Matlab statements will return the ACTION_WORD of each DIM_WORD for a 2D array named $XX/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[answers,correctness,problem_values,explanation] = data24();</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $FUNC_STR/$ function will calculate the ACTION_WORD of an array. Since $XX/$ is 2D, then $FUNC_STR(XX)/$ will not return a single value. It will return an array. If you want the ACTION_WORD of each DIM_WORD, then you want Matlab to calculate the ACTION_WORD &lt;em&gt;across&lt;/em&gt; the ORD1 dimension. This will ensure that you get a value for each entry in the ORD2 dimension, i.e. for each DIM_WORD.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Since you want Matlab to calculate &lt;em&gt;across&lt;/em&gt; the ORD1 dimension, the number $DIM_IND/$ should be added as an input, e.g. REFERENCE. This will return an array of values containing the ACTION_WORD of each DIM_WORD. 
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+EXPLAIN
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data25</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explanation] = data25();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have an array $XX/$ with the following values:
+&lt;/p&gt;
+&lt;p&gt;
+ARRAY_DISP
+&lt;/p&gt;
+&lt;p&gt;
+What would be returned by $COMMAND/$?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>problem_values{7}</t>
+  </si>
+  <si>
+    <t>problem_values{8}</t>
+  </si>
+  <si>
+    <t>DIM_WORD1</t>
+  </si>
+  <si>
+    <t>DIM_WORD2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The $FUNC_STR/$ function calculates the ACTION_WORD of an array. Adding a second input allows you to specify the dimension across which Matlab will calculate. The command $COMMAND/$ has the dimension $DIM_IND/$ in the input. Matlab will calculate the ACTION_WORD across the DIM_WORD2s and return a value for each DIM_WORD1. The output will be a single DIM_WORD2 array of values. Therefore, the correct output for $COMMAND/$ is
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+REFERENCE
+&lt;/p&gt;
+EXPLAIN</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>data10.1</t>
+  </si>
+  <si>
+    <t>randsample('abcdefghkmnpqrtuvwxyz',1);</t>
+  </si>
+  <si>
+    <t>['\s*plot\s*\(\s*XX\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Write a Matlab statement that would plot the values in an array named $XX/$ using the default plotting function. Don't include any inputs that would change the default behavior of the function.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The default Matlab plotting function is aptly named $plot/$, so the correct answer is $plot(XX)/$. There are lots of ways you can change the default behavior with other arguments, some of which will be covered in other sections.
+&lt;/p&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>data10.2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have two 1D arrays of the same size named $XX/$ and $YY/$. Write a Matlab statement that would create a scatter plot of $XX/$ vs. $YY/$, i.e. with $YY/$ as the dependent variable and $XX/$ as the independent variable. Using the default plotting function and the $'.'/$ option to use use dots. Don't include any other inputs that would change the default behavior of the function.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>['\s*plot\s*\(\s*XX\s*,\s*YY\s*\,\s*'.'\s*\)\s*;?\s*']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The default Matlab plotting function is aptly named $plot/$, so the correct answer is $plot(XX,YY,'.')/$. The variable $XX/$ should be first since it is the independent variable and will be plotted along the x-axis. The $'.'/$ input will cause the data to be plotted with unconnected dots, i.e. a scatter plot.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+There are lots of ways you can change the default behavior with other arguments, some of which will be covered in other sections. There are also other plotting functions that you can familiarize yourself with &lt;a href="https://www.mathworks.com/help/matlab/creating_plots/types-of-matlab-plots.html" target="_blank"&gt;here&lt;/a&gt;. There is even a function designed specifically for scatter plots called $scatter/$.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -572,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -603,6 +1703,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA62E7-B975-412E-89FE-9864931B8B79}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1753,8 +2856,268 @@
       </c>
       <c r="D74" s="13"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="2"/>
+    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46410BC6-4A56-41D6-B9E7-CD9E9C5E16DF}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2043,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2054,7 +3417,7 @@
         <v>111</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2073,10 +3436,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2084,10 +3447,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2095,10 +3458,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,16 +3487,16 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
@@ -2142,7 +3505,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2150,9 +3513,4540 @@
         <v>1</v>
       </c>
       <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7AA70D-3D10-46E3-94CF-B7A331914FD7}">
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583339B4-CD27-42E9-81F6-1AEEB7940042}">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="395.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAD279A-6442-4221-B57F-86D09AAD8D7D}">
+  <dimension ref="A1:E144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="98.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E137" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C61819-6B96-4D9A-9FFA-545F814BD4B1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="113.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/matlab_attempt/Excel problems/Data questions.xlsx
+++ b/matlab_attempt/Excel problems/Data questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46DC86-9ECE-40D7-B729-78F00F832B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1DBDF-72C7-4B52-B971-486FB4C917D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="11" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="9" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
   </bookViews>
   <sheets>
     <sheet name="CG5.1.3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="CG5.3.1" sheetId="12" r:id="rId10"/>
     <sheet name="CG5.3.2" sheetId="13" r:id="rId11"/>
     <sheet name="CG5.3.3" sheetId="14" r:id="rId12"/>
-    <sheet name="Unused" sheetId="7" r:id="rId13"/>
+    <sheet name="CG5.3.4" sheetId="15" r:id="rId13"/>
+    <sheet name="Unused" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5213" uniqueCount="899">
   <si>
     <t>questionText</t>
   </si>
@@ -3930,6 +3931,76 @@
   </si>
   <si>
     <t>D22</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The line $im = imread('FILESTR')/$ caused an error because Matlab could not find "FILESTR". Matlab will first search in the current directory, followed by each folder on the patch. Therefore, there are multiple ways to possibly fix this error.&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;The possible answers here are:
+&lt;ul&gt;EXPLAIN&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There are several ways you could load this image.&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;The possible answers here are:
+&lt;ul&gt;EXPLAIN&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>path1_review</t>
+  </si>
+  <si>
+    <t>path2_review</t>
+  </si>
+  <si>
+    <t>path3_review</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You have an file named "FILESTR" located in the folder "PATHSTR". You type $myTable = readtable('FILESTR')/$ into the command line and receive an error message saying that "FILESTR" does not exist. You double-check your spelling and find no mistakes. You also check and confirm that the file does exist in "PATHSTR". &lt;/p&gt;&lt;p&gt;What are some ways you could fix this error?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[answers, correctness, pathstr, filestr, explanation] = path1_review();</t>
+  </si>
+  <si>
+    <t>[answers, correctness, pathstr, filestr, explanation] = path2_review();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You have a data file named "FILESTR" located in the folder "PATHSTR".  Which choice(s) below would successfully load this file into Matlab?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[answers, correctness, pathstr, filestr, explanation] = path3_review();</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You have a data file named "FILESTR" located in the folder "PATHSTR". Your current directory is a different folder. Which choice(s) below would successfully load this file into a variable named $myTable/$?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Download &lt;a href="/static/random_table_ID.csv" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab by dragging the file from your desktop into the Command Window. If you are using Matlab Online, you will need to upload the file first. 
+&lt;/p&gt;
+&lt;p&gt;
+A user interface will open that will allow you to import the data as a table. You can finish the import process by clicking "Import Selection" near the top-right of the window.
+&lt;/p&gt;
+&lt;p&gt;
+How many observations does this data have?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>data51.4</t>
+  </si>
+  <si>
+    <t>FILEID</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Download &lt;a href="/static/random_table_FILEID.csv" target="_blank"&gt;this file&lt;/a&gt; and load it into Matlab by dragging the file from your desktop into the Command Window. If you are using Matlab Online, you will need to upload the file first. 
+&lt;/p&gt;
+&lt;p&gt;
+A user interface will open that will allow you to import the data as a table. You can finish the import process by clicking "Import Selection" near the top-right of the window.
+&lt;/p&gt;
+&lt;p&gt;
+What is the ORD1 observation of the $VAR_NAME/$ variable?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T = readtable('Data\random_table_FILEID.csv');</t>
   </si>
 </sst>
 </file>
@@ -3985,7 +4056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4041,6 +4112,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4357,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA62E7-B975-412E-89FE-9864931B8B79}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5477,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B8C05-919E-4A16-AAB9-DDFCD7F7F9FF}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7271,13 +7344,13 @@
     </row>
     <row r="166" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -7398,13 +7471,13 @@
     </row>
     <row r="178" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -7412,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>5</v>
+        <v>896</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>492</v>
@@ -7426,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>863</v>
+        <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -7613,7 +7686,7 @@
     </row>
     <row r="198" spans="1:5" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>0</v>
@@ -9622,8 +9695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5617C5FD-31B0-40B2-B234-37C58CD07772}">
   <dimension ref="A1:XFD150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19435,6 +19508,980 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4563B77E-3990-4C7B-A385-8D3DA8FF1988}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C61819-6B96-4D9A-9FFA-545F814BD4B1}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -19598,8 +20645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46410BC6-4A56-41D6-B9E7-CD9E9C5E16DF}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/matlab_attempt/Excel problems/Data questions.xlsx
+++ b/matlab_attempt/Excel problems/Data questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1DBDF-72C7-4B52-B971-486FB4C917D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E88098-BE82-4BF0-B487-F36FE49B8A9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="9" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="12" xr2:uid="{BC6FDD6A-A67B-40E6-83ED-ED8A835A9503}"/>
   </bookViews>
   <sheets>
     <sheet name="CG5.1.3" sheetId="1" r:id="rId1"/>
@@ -4430,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA62E7-B975-412E-89FE-9864931B8B79}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5550,7 +5550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B8C05-919E-4A16-AAB9-DDFCD7F7F9FF}">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A173" workbookViewId="0">
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
@@ -7912,7 +7912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F40670A-043B-4EBF-97A6-1769A41A7E71}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -9695,7 +9695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5617C5FD-31B0-40B2-B234-37C58CD07772}">
   <dimension ref="A1:XFD150"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -19511,7 +19511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4563B77E-3990-4C7B-A385-8D3DA8FF1988}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -25451,7 +25451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132BE59A-069B-4660-A980-E9C8C42D0011}">
   <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
@@ -33538,7 +33538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECBDAD-7EA6-41AE-B501-C28E9E276F79}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
